--- a/Алиса-Шаблон трекшен-карты Idea Challenge Х5.xlsx
+++ b/Алиса-Шаблон трекшен-карты Idea Challenge Х5.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikolay.smotrelkin\Desktop\Финал\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="630" yWindow="525" windowWidth="8295" windowHeight="5580"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>Этап 1. До 25 декабря</t>
   </si>
@@ -119,25 +124,10 @@
     <t>Бизнес-заказчик - интернет-магазин "Перекрёсток"</t>
   </si>
   <si>
-    <t>Повышение продаж за счёт организации нового канала продаж - продажи через голосового помощника</t>
-  </si>
-  <si>
     <t>В процессе</t>
   </si>
   <si>
-    <t xml:space="preserve">Удобство составления списка покупок </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Покутель не хочет тратить время на заказ с использованием телефона или сайта </t>
-  </si>
-  <si>
-    <t>Покупателю будет интересен новый способ оформления заказа через голосового помощника</t>
-  </si>
-  <si>
     <t>Голосовой помощник поможет клиенту узнать об интересных клиенту акциях, которые проводятся в магазинах торговых сетей Компании.</t>
-  </si>
-  <si>
-    <t>Удобный способ узнать о проводимых акциях в магазинах</t>
   </si>
   <si>
     <t>Голосовой помощник поможет клиенту сформировать корзину для заказа в процессе повседневной жизни (например, "Алиса надо будет купить ...")</t>
@@ -152,12 +142,33 @@
   </si>
   <si>
     <t>Привлечение новых клиентов, увеличение прибыли</t>
+  </si>
+  <si>
+    <t>Покупатель не хочет тратить время на заказ с использованием телефона или сайта.</t>
+  </si>
+  <si>
+    <t>Покупателю будет интересен новый способ оформления заказа через голосового помощника.</t>
+  </si>
+  <si>
+    <t>Покупатель испытывает неудобства с получением информации о промо-акциях.</t>
+  </si>
+  <si>
+    <t>Покупатель испытывает неудобства с составлением и ведением списка покупок</t>
+  </si>
+  <si>
+    <t>БЗ найден. Ожидаем подтверждения.</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>Да</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -314,7 +325,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -414,11 +425,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -489,6 +528,12 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -511,11 +556,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,6 +574,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -734,7 +785,7 @@
   </sheetPr>
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -759,27 +810,27 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="28" t="s">
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="30"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="32"/>
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -909,24 +960,24 @@
       <c r="P4" s="17"/>
       <c r="Q4" s="18"/>
     </row>
-    <row r="5" spans="1:17" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="123.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>1</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="24" t="s">
         <v>37</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>42</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
@@ -942,18 +993,18 @@
     </row>
     <row r="6" spans="1:17" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="21" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="24" t="s">
         <v>38</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>43</v>
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
@@ -967,20 +1018,20 @@
       <c r="P6" s="21"/>
       <c r="Q6" s="7"/>
     </row>
-    <row r="7" spans="1:17" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>36</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>41</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
@@ -994,20 +1045,20 @@
       <c r="P7" s="21"/>
       <c r="Q7" s="7"/>
     </row>
-    <row r="8" spans="1:17" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="21" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="25" t="s">
         <v>35</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>39</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
@@ -1021,24 +1072,22 @@
       <c r="P8" s="21"/>
       <c r="Q8" s="7"/>
     </row>
-    <row r="9" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19">
         <v>2</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="34" t="s">
+      <c r="E9" s="24" t="s">
         <v>44</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
@@ -1530,6 +1579,6 @@
     <mergeCell ref="B5:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>